--- a/output/access-medicationdispense-clin.xlsx
+++ b/output/access-medicationdispense-clin.xlsx
@@ -161,7 +161,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Dispensing a medication to a named patient</t>
+    <t>ACCESS MedicationDispense (Clinician) Profile</t>
   </si>
   <si>
     <t>Indicates that a medication product is to be or has been dispensed for a named person/patient.  This includes a description of the medication product (supply) provided and the instructions for administering the medication.  The medication dispense is the result of a pharmacy system responding to a medication order.</t>
